--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>BUG/BEHAVIOR</t>
   </si>
@@ -44,13 +44,25 @@
   </si>
   <si>
     <t>Eye closing animation not implemented, when alertness goes down it seems unnatural</t>
+  </si>
+  <si>
+    <t>Cursor not rotating</t>
+  </si>
+  <si>
+    <t>SOLVED?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +70,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -113,16 +136,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,20 +452,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="3" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,11 +477,17 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -462,8 +497,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -473,8 +511,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -483,6 +524,23 @@
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>BUG/BEHAVIOR</t>
   </si>
@@ -55,14 +55,23 @@
     <t>NO</t>
   </si>
   <si>
-    <t>REMARKS</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Bot/Player not totally dead after death.</t>
+  </si>
+  <si>
+    <t>PR0Pawn (presumably)</t>
+  </si>
+  <si>
+    <t>Maybe because Melkar override the deadanimation function?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +85,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +102,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -136,20 +156,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +487,7 @@
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -483,9 +506,7 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -497,8 +518,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,8 +532,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -539,11 +560,29 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>